--- a/v0.7.1/StructureDefinition-CoverageEligibilityRequest.xlsx
+++ b/v0.7.1/StructureDefinition-CoverageEligibilityRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="343">
   <si>
     <t>Property</t>
   </si>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>CoverageEligibilityRequest resource</t>
@@ -1567,10 +1571,10 @@
         <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>19</v>
@@ -1639,7 +1643,7 @@
         <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>73</v>
@@ -1648,15 +1652,15 @@
         <v>73</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1667,7 +1671,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1676,19 +1680,19 @@
         <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1738,13 +1742,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1767,10 +1771,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1781,7 +1785,7 @@
         <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -1790,16 +1794,16 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1850,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -1879,10 +1883,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1893,28 +1897,28 @@
         <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1964,19 +1968,19 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -1993,10 +1997,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2007,7 +2011,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -2019,16 +2023,16 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2054,13 +2058,13 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>73</v>
@@ -2078,19 +2082,19 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>73</v>
@@ -2107,21 +2111,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -2133,16 +2137,16 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2192,19 +2196,19 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>73</v>
@@ -2216,19 +2220,19 @@
         <v>73</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2247,16 +2251,16 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2306,7 +2310,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
@@ -2330,19 +2334,19 @@
         <v>73</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2361,16 +2365,16 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2420,7 +2424,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2432,7 +2436,7 @@
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>73</v>
@@ -2444,19 +2448,19 @@
         <v>73</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2469,25 +2473,25 @@
         <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>73</v>
@@ -2536,7 +2540,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -2548,7 +2552,7 @@
         <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>73</v>
@@ -2560,15 +2564,15 @@
         <v>73</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2576,10 +2580,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
@@ -2591,17 +2595,17 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>73</v>
@@ -2650,7 +2654,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -2662,13 +2666,13 @@
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>73</v>
@@ -2679,10 +2683,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2690,34 +2694,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>73</v>
@@ -2742,13 +2746,13 @@
         <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>73</v>
@@ -2766,25 +2770,25 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>73</v>
@@ -2795,10 +2799,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2806,10 +2810,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2821,17 +2825,17 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>73</v>
@@ -2856,13 +2860,13 @@
         <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>73</v>
@@ -2880,25 +2884,25 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>73</v>
@@ -2909,10 +2913,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2920,7 +2924,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>
@@ -2932,20 +2936,20 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>73</v>
@@ -2970,13 +2974,13 @@
         <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>73</v>
@@ -2994,10 +2998,10 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
@@ -3006,13 +3010,13 @@
         <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>73</v>
@@ -3023,10 +3027,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3034,10 +3038,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -3046,22 +3050,22 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>73</v>
@@ -3110,25 +3114,25 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>73</v>
@@ -3139,10 +3143,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3153,7 +3157,7 @@
         <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -3165,17 +3169,17 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -3224,25 +3228,25 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>73</v>
@@ -3253,10 +3257,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3264,10 +3268,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -3276,20 +3280,20 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>73</v>
@@ -3338,25 +3342,25 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>73</v>
@@ -3367,10 +3371,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3378,10 +3382,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -3393,17 +3397,17 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>73</v>
@@ -3452,25 +3456,25 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>73</v>
@@ -3481,10 +3485,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3492,10 +3496,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -3507,19 +3511,19 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>73</v>
@@ -3568,25 +3572,25 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>73</v>
@@ -3597,10 +3601,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3608,10 +3612,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -3620,20 +3624,20 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>73</v>
@@ -3682,25 +3686,25 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>73</v>
@@ -3711,10 +3715,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3725,7 +3729,7 @@
         <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -3737,17 +3741,17 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>73</v>
@@ -3796,25 +3800,25 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>73</v>
@@ -3825,10 +3829,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3851,19 +3855,19 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>73</v>
@@ -3912,7 +3916,7 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -3924,7 +3928,7 @@
         <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -3941,10 +3945,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3955,7 +3959,7 @@
         <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>73</v>
@@ -3967,13 +3971,13 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4024,13 +4028,13 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>73</v>
@@ -4048,19 +4052,19 @@
         <v>73</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4079,16 +4083,16 @@
         <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4138,7 +4142,7 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
@@ -4150,7 +4154,7 @@
         <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>73</v>
@@ -4162,19 +4166,19 @@
         <v>73</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4187,25 +4191,25 @@
         <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>73</v>
@@ -4254,7 +4258,7 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
@@ -4266,7 +4270,7 @@
         <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>73</v>
@@ -4278,15 +4282,15 @@
         <v>73</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4294,10 +4298,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -4309,17 +4313,17 @@
         <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>73</v>
@@ -4368,19 +4372,19 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>73</v>
@@ -4397,10 +4401,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4408,10 +4412,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>73</v>
@@ -4423,19 +4427,19 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>73</v>
@@ -4484,19 +4488,19 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>73</v>
@@ -4513,10 +4517,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4527,7 +4531,7 @@
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -4539,17 +4543,17 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>73</v>
@@ -4598,19 +4602,19 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
@@ -4627,10 +4631,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4653,19 +4657,19 @@
         <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>73</v>
@@ -4714,7 +4718,7 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
@@ -4726,7 +4730,7 @@
         <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>73</v>
@@ -4743,10 +4747,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4757,7 +4761,7 @@
         <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>73</v>
@@ -4769,13 +4773,13 @@
         <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4826,13 +4830,13 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>73</v>
@@ -4850,19 +4854,19 @@
         <v>73</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4881,16 +4885,16 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4940,7 +4944,7 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -4952,7 +4956,7 @@
         <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>73</v>
@@ -4964,19 +4968,19 @@
         <v>73</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4989,25 +4993,25 @@
         <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>73</v>
@@ -5056,7 +5060,7 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -5068,7 +5072,7 @@
         <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>73</v>
@@ -5080,15 +5084,15 @@
         <v>73</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5099,7 +5103,7 @@
         <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>73</v>
@@ -5111,19 +5115,19 @@
         <v>73</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>73</v>
@@ -5172,19 +5176,19 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>73</v>
@@ -5201,10 +5205,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5212,10 +5216,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>73</v>
@@ -5227,17 +5231,17 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>73</v>
@@ -5286,19 +5290,19 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>73</v>
@@ -5315,10 +5319,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5329,7 +5333,7 @@
         <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>73</v>
@@ -5341,17 +5345,17 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>73</v>
@@ -5400,19 +5404,19 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
@@ -5429,10 +5433,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5455,17 +5459,17 @@
         <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>73</v>
@@ -5514,7 +5518,7 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -5526,7 +5530,7 @@
         <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>73</v>
@@ -5543,10 +5547,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5557,7 +5561,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>73</v>
@@ -5569,13 +5573,13 @@
         <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5626,13 +5630,13 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>73</v>
@@ -5650,19 +5654,19 @@
         <v>73</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5681,16 +5685,16 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5740,7 +5744,7 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -5752,7 +5756,7 @@
         <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>73</v>
@@ -5764,19 +5768,19 @@
         <v>73</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5789,25 +5793,25 @@
         <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>73</v>
@@ -5856,7 +5860,7 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -5868,7 +5872,7 @@
         <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -5880,15 +5884,15 @@
         <v>73</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5911,17 +5915,17 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>73</v>
@@ -5970,7 +5974,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -5982,7 +5986,7 @@
         <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>73</v>
@@ -5999,10 +6003,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6013,7 +6017,7 @@
         <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>73</v>
@@ -6025,19 +6029,19 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>73</v>
@@ -6062,13 +6066,13 @@
         <v>73</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>73</v>
@@ -6086,19 +6090,19 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
@@ -6115,10 +6119,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6129,7 +6133,7 @@
         <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>73</v>
@@ -6141,19 +6145,19 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>73</v>
@@ -6178,13 +6182,13 @@
         <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>73</v>
@@ -6202,19 +6206,19 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>73</v>
@@ -6231,10 +6235,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6257,19 +6261,19 @@
         <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>73</v>
@@ -6294,13 +6298,13 @@
         <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>73</v>
@@ -6318,7 +6322,7 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6330,7 +6334,7 @@
         <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
@@ -6347,10 +6351,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6361,7 +6365,7 @@
         <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>73</v>
@@ -6373,17 +6377,17 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>73</v>
@@ -6432,25 +6436,25 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>73</v>
@@ -6461,10 +6465,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6475,7 +6479,7 @@
         <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>73</v>
@@ -6487,17 +6491,17 @@
         <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>73</v>
@@ -6546,19 +6550,19 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>73</v>
@@ -6575,10 +6579,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6589,7 +6593,7 @@
         <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>73</v>
@@ -6601,17 +6605,17 @@
         <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>73</v>
@@ -6660,19 +6664,19 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>73</v>
@@ -6689,10 +6693,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6703,7 +6707,7 @@
         <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>73</v>
@@ -6715,17 +6719,17 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>73</v>
@@ -6774,19 +6778,19 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
@@ -6803,10 +6807,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6829,17 +6833,17 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>73</v>
@@ -6888,7 +6892,7 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
@@ -6900,7 +6904,7 @@
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -6909,7 +6913,7 @@
         <v>73</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>73</v>
@@ -6917,10 +6921,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6931,7 +6935,7 @@
         <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>73</v>
@@ -6943,13 +6947,13 @@
         <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7000,13 +7004,13 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>73</v>
@@ -7024,19 +7028,19 @@
         <v>73</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7055,16 +7059,16 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7114,7 +7118,7 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
@@ -7126,7 +7130,7 @@
         <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>73</v>
@@ -7138,19 +7142,19 @@
         <v>73</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7163,25 +7167,25 @@
         <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>73</v>
@@ -7230,7 +7234,7 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7242,7 +7246,7 @@
         <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>73</v>
@@ -7254,15 +7258,15 @@
         <v>73</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7273,7 +7277,7 @@
         <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>73</v>
@@ -7285,17 +7289,17 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>73</v>
@@ -7320,13 +7324,13 @@
         <v>73</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>73</v>
@@ -7344,19 +7348,19 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
@@ -7373,10 +7377,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7399,17 +7403,17 @@
         <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>73</v>
@@ -7458,7 +7462,7 @@
         <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
@@ -7470,7 +7474,7 @@
         <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
